--- a/team_specific_matrix/Blue Mountain (MS)_B.xlsx
+++ b/team_specific_matrix/Blue Mountain (MS)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3764705882352941</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1900826446280992</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1322314049586777</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3223140495867768</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1322314049586777</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.140495867768595</v>
       </c>
     </row>
   </sheetData>
